--- a/数据整理/stocks/A股/深证主板/000039-中集集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000039-中集集团.xlsx
@@ -451,351 +451,471 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1821</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>167705</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>31.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>519117</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>浦银安盛基本面400指数</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>94.05</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>0.87</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001556</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天弘中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001557</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>天弘中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>162907</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰信中证锐联基本面400指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008112</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中泰中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008113</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中泰中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>167706</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>159990</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银华巨潮小盘价值ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>97.41</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>167705</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>德邦量化新锐股票(LOF) A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>167706</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>德邦量化新锐股票(LOF) C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005616</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>东方量化成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004546</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>建信量化优享定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>31.11</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -805,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,15 +946,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -846,26 +976,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004250</t>
+          <t>000478</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河量化优选混合</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.01</t>
+          <t>41.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4669</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -874,25 +1014,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003717</t>
+          <t>001556</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中银量化精选灵活配置混合A</t>
+          <t>天弘中证500指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>13.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2549</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010484</t>
+          <t>000978</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中银量化精选灵活配置混合C</t>
+          <t>景顺长城量化精选股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004142</t>
+          <t>000433</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商盛合灵活配置混合A</t>
+          <t>安信鑫发优选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>84.97</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004143</t>
+          <t>001557</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商盛合灵活配置混合C</t>
+          <t>天弘中证500指数增强C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>84.97</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005616</t>
+          <t>004142</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东方量化成长灵活配置混合</t>
+          <t>招商盛合灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>90.54</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005947</t>
+          <t>009140</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>德邦民裕进取量化精选灵活配置混合A</t>
+          <t>永赢竞争力精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.56</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005948</t>
+          <t>010120</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>德邦民裕进取量化精选灵活配置混合C</t>
+          <t>九泰久福量化股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.56</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>43.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1080,15 +1290,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>88.21</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1.38</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007089</t>
+          <t>009608</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国投瑞银中证500指数量化增强C</t>
+          <t>广发中证500指数增强A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>88.21</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>85.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000433</t>
+          <t>009726</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>安信鑫发优选混合</t>
+          <t>招商中证500等权重指数增强A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>78.93</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1154,25 +1394,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000478</t>
+          <t>005633</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>建信中证500指数增强C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>84.44</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1.12</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005633</t>
+          <t>159990</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>建信中证500指数增强C</t>
+          <t>银华巨潮小盘价值ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>84.44</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010120</t>
+          <t>005965</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>九泰久福量化股票A</t>
+          <t>安信中证500指数增强A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>43.06</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010121</t>
+          <t>003717</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>九泰久福量化股票C</t>
+          <t>中银量化精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>43.06</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1276,15 +1556,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>94.45</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>0.75</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006441</t>
+          <t>005966</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强C</t>
+          <t>安信中证500指数增强C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1322,25 +1622,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006729</t>
+          <t>004250</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>万家中证500指数增强A</t>
+          <t>银河量化优选混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>006730</t>
+          <t>005947</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>万家中证500指数增强C</t>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1378,25 +1698,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>000978</t>
+          <t>007089</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>景顺长城量化精选股票</t>
+          <t>国投瑞银中证500指数量化增强C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>83.80</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001397</t>
+          <t>005616</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>建信精工制造指数增强</t>
+          <t>东方量化成长灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>86.37</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>001556</t>
+          <t>001397</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强A</t>
+          <t>建信精工制造指数增强</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>2</v>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1462,25 +1812,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>001557</t>
+          <t>009727</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强C</t>
+          <t>招商中证500等权重指数增强C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>519117</t>
+          <t>162907</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>浦银安盛基本面400指数</t>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>3</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>159990</t>
+          <t>006729</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>银华巨潮小盘价值ETF</t>
+          <t>万家中证500指数增强A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>97.96</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>6</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>167705</t>
+          <t>009609</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>德邦量化新锐股票(LOF) A</t>
+          <t>广发中证500指数增强C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>8</v>
+          <t>85.01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>167706</t>
+          <t>006441</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>德邦量化新锐股票(LOF) C</t>
+          <t>中信建投中证500指数增强C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>8</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1602,25 +2002,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>005965</t>
+          <t>167705</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>安信中证500指数增强A</t>
+          <t>德邦量化新锐股票(LOF) A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>005966</t>
+          <t>010121</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>安信中证500指数增强C</t>
+          <t>九泰久福量化股票C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
+          <t>43.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>004790</t>
+          <t>519117</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>富荣中证500指数增强A</t>
+          <t>浦银安盛基本面400指数</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>5</v>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>004791</t>
+          <t>005948</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>富荣中证500指数增强C</t>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>5</v>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>009140</t>
+          <t>167706</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>永赢竞争力精选混合</t>
+          <t>德邦量化新锐股票(LOF) C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>89.69</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>2</v>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>009726</t>
+          <t>004790</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>招商中证500等权重指数增强A</t>
+          <t>富荣中证500指数增强A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>2</v>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1770,25 +2230,35 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>009727</t>
+          <t>006730</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>招商中证500等权重指数增强C</t>
+          <t>万家中证500指数增强C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>009608</t>
+          <t>004791</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>广发中证500指数增强A</t>
+          <t>富荣中证500指数增强C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>85.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>6</v>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>009609</t>
+          <t>004143</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>广发中证500指数增强C</t>
+          <t>招商盛合灵活配置混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>85.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>6</v>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1854,25 +2344,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>162907</t>
+          <t>010484</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>泰信中证锐联基本面400指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000039-中集集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000039-中集集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2352,7 +2353,6 @@
           <t>中银量化精选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
           <t>93.76</t>
@@ -2367,6 +2367,1050 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0336</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5618</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3843</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1717</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债债券</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>50.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008230</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>九泰天辰量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>71.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>50.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000039-中集集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000039-中集集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3417,4 +3418,972 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8764</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3909</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1558</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009039</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009040</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000039-中集集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000039-中集集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4386,4 +4387,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000039-中集集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000039-中集集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4395,7 +4396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4406,17 +4407,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4426,14 +4447,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.97</v>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3442</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -4442,14 +4485,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.62</v>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2398</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4458,14 +4523,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>37</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.36</v>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2136</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4474,13 +4561,1177 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1787</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004480</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝智慧产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010773</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城泰阳回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011731</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010774</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城泰阳回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011732</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004606</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根优选多因子股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>27.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.31</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000039-中集集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000039-中集集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5630,7 +5631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5641,17 +5642,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5661,14 +5682,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.01</v>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7164</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -5677,14 +5720,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.97</v>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2417</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5693,14 +5758,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.62</v>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -5709,14 +5796,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>37</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.36</v>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -5725,13 +5834,661 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011731</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011732</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>37</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.31</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000039-中集集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000039-中集集团.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6371,7 +6372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6382,17 +6383,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6402,14 +6423,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.49</v>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3019</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -6418,14 +6461,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.01</v>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -6434,14 +6499,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.97</v>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -6450,14 +6537,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.62</v>
+          <t>010773</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城泰阳回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -6466,14 +6575,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>37</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.36</v>
+          <t>011731</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -6482,13 +6613,335 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010774</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城泰阳回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011732</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>37</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>11</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.31</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000039-中集集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000039-中集集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.49</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>2.01</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>2.62</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>1.36</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>37</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>11</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -600,6 +617,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1035,7 +1146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1775,7 +1886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3009,7 +3120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3977,7 +4088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5021,7 +5132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6476,7 +6587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
